--- a/input_data/admin_data/CHL/gpinter_CHL_2019.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2019.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>year</t>
   </si>
@@ -201,6 +201,66 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -387,10 +447,130 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -635,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J82"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -643,31 +823,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2">
@@ -675,31 +855,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="D2">
-        <v>1497825.1063280201</v>
+        <v>4290358.9113799501</v>
       </c>
       <c r="E2">
-        <v>0.66000000000000003</v>
+        <v>0.46000000000000002</v>
       </c>
       <c r="F2">
-        <v>79970.032122734105</v>
+        <v>57180.263470776801</v>
       </c>
       <c r="G2">
-        <v>0.99976086146009202</v>
+        <v>0.99995463480901603</v>
       </c>
       <c r="H2">
-        <v>4404314.4665266201</v>
+        <v>7944748.6637565596</v>
       </c>
       <c r="I2">
-        <v>127061.37840104901</v>
+        <v>100468.054145178</v>
       </c>
       <c r="J2">
-        <v>55.0745616778932</v>
+        <v>138.94214859322699</v>
       </c>
     </row>
     <row r="3">
@@ -707,29 +887,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.67000000000000004</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="F3">
-        <v>175484.614422049</v>
+        <v>144532.92788785</v>
       </c>
       <c r="G3">
-        <v>0.99891255562074999</v>
+        <v>0.99972046313195895</v>
       </c>
       <c r="H3">
-        <v>4533928.1964698201</v>
+        <v>8092753.95827753</v>
       </c>
       <c r="I3">
-        <v>226659.21654553901</v>
+        <v>190175.470118236</v>
       </c>
       <c r="J3">
-        <v>25.836613719112201</v>
+        <v>55.992458442114</v>
       </c>
     </row>
     <row r="4">
@@ -737,29 +917,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.68000000000000005</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F4">
-        <v>279254.02724293899</v>
+        <v>236618.54081053101</v>
       </c>
       <c r="G4">
-        <v>0.99739930006382305</v>
+        <v>0.99927720075217596</v>
       </c>
       <c r="H4">
-        <v>4668530.3520924496</v>
+        <v>8244726.6215113597</v>
       </c>
       <c r="I4">
-        <v>334780.41363282199</v>
+        <v>284685.84345711302</v>
       </c>
       <c r="J4">
-        <v>16.717862220948501</v>
+        <v>34.843958521886101</v>
       </c>
     </row>
     <row r="5">
@@ -767,29 +947,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68999999999999995</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F5">
-        <v>391818.83423064998</v>
+        <v>333576.76357077999</v>
       </c>
       <c r="G5">
-        <v>0.99516418988828603</v>
+        <v>0.998613652901431</v>
       </c>
       <c r="H5">
-        <v>4808328.7372040497</v>
+        <v>8400805.8524536006</v>
       </c>
       <c r="I5">
-        <v>451975.68546489399</v>
+        <v>384137.61575041001</v>
       </c>
       <c r="J5">
-        <v>12.2718162506031</v>
+        <v>25.1840258971488</v>
       </c>
     </row>
     <row r="6">
@@ -797,29 +977,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.69999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>513739.505238201</v>
+        <v>435544.66387114499</v>
       </c>
       <c r="G6">
-        <v>0.99214664342337999</v>
+        <v>0.99771830213081902</v>
       </c>
       <c r="H6">
-        <v>4953540.50559536</v>
+        <v>8561139.2171876598</v>
       </c>
       <c r="I6">
-        <v>578814.299820669</v>
+        <v>488666.15433815902</v>
       </c>
       <c r="J6">
-        <v>9.6421249584428903</v>
+        <v>19.656168304521898</v>
       </c>
     </row>
     <row r="7">
@@ -827,29 +1007,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.70999999999999996</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F7">
-        <v>645593.54054206796</v>
+        <v>542655.73610346904</v>
       </c>
       <c r="G7">
-        <v>0.98828227836917304</v>
+        <v>0.99657931547624801</v>
       </c>
       <c r="H7">
-        <v>5104393.1333806897</v>
+        <v>8725883.5654090792</v>
       </c>
       <c r="I7">
-        <v>715880.65933592303</v>
+        <v>598402.71590893297</v>
       </c>
       <c r="J7">
-        <v>7.9065120897814802</v>
+        <v>16.0799619074612</v>
       </c>
     </row>
     <row r="8">
@@ -857,29 +1037,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.71999999999999997</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F8">
-        <v>787971.47140211798</v>
+        <v>655038.80679225898</v>
       </c>
       <c r="G8">
-        <v>0.98350281075101498</v>
+        <v>0.99518455403957296</v>
       </c>
       <c r="H8">
-        <v>5261125.72173943</v>
+        <v>8895206.0831070002</v>
       </c>
       <c r="I8">
-        <v>863769.62920792005</v>
+        <v>713473.29100919201</v>
       </c>
       <c r="J8">
-        <v>6.67679720990124</v>
+        <v>13.5796627480241</v>
       </c>
     </row>
     <row r="9">
@@ -887,29 +1067,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.72999999999999998</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F9">
-        <v>941471.46503263805</v>
+        <v>772816.81688627601</v>
       </c>
       <c r="G9">
-        <v>0.97773598506783799</v>
+        <v>0.99352158526295897</v>
       </c>
       <c r="H9">
-        <v>5423990.7622035602</v>
+        <v>9069285.5042154696</v>
       </c>
       <c r="I9">
-        <v>1023080.3094269501</v>
+        <v>833997.32147484098</v>
       </c>
       <c r="J9">
-        <v>5.7611844475982403</v>
+        <v>11.735362515474399</v>
       </c>
     </row>
     <row r="10">
@@ -917,29 +1097,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.73999999999999999</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F10">
-        <v>1106692.2035884</v>
+        <v>896105.47297935199</v>
       </c>
       <c r="G10">
-        <v>0.97090554601921597</v>
+        <v>0.99157769819266595</v>
       </c>
       <c r="H10">
-        <v>5593256.5488488199</v>
+        <v>9248313.5081880894</v>
       </c>
       <c r="I10">
-        <v>1194407.88722581</v>
+        <v>960086.28305465402</v>
       </c>
       <c r="J10">
-        <v>5.0540308594502799</v>
+        <v>10.320563579909299</v>
       </c>
     </row>
     <row r="11">
@@ -947,29 +1127,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F11">
-        <v>1284223.6368535201</v>
+        <v>1025011.76028834</v>
       </c>
       <c r="G11">
-        <v>0.96293126462828704</v>
+        <v>0.98933992204646004</v>
       </c>
       <c r="H11">
-        <v>5769210.4953137403</v>
+        <v>9432496.3354132809</v>
       </c>
       <c r="I11">
-        <v>1378333.1290619001</v>
+        <v>1091842.1267561801</v>
       </c>
       <c r="J11">
-        <v>4.4923721459051302</v>
+        <v>9.20232986669334</v>
       </c>
     </row>
     <row r="12">
@@ -977,29 +1157,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.76000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F12">
-        <v>1474635.12530397</v>
+        <v>1159632.31150129</v>
       </c>
       <c r="G12">
-        <v>0.95372903451985402</v>
+        <v>0.98679504841395405</v>
       </c>
       <c r="H12">
-        <v>5952163.7189075695</v>
+        <v>9622056.6583373006</v>
       </c>
       <c r="I12">
-        <v>1575408.98130789</v>
+        <v>1229355.57391233</v>
       </c>
       <c r="J12">
-        <v>4.0363637192492803</v>
+        <v>8.2975065138365807</v>
       </c>
     </row>
     <row r="13">
@@ -1007,29 +1187,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.77000000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F13">
-        <v>1678460.3926835</v>
+        <v>1300051.6276379901</v>
       </c>
       <c r="G13">
-        <v>0.94321105765692004</v>
+        <v>0.98392965743080896</v>
       </c>
       <c r="H13">
-        <v>6142457.4031510297</v>
+        <v>9817235.7533239294</v>
       </c>
       <c r="I13">
-        <v>1786143.64368401</v>
+        <v>1372704.26254833</v>
       </c>
       <c r="J13">
-        <v>3.6595784028782199</v>
+        <v>7.5514199164231899</v>
       </c>
     </row>
     <row r="14">
@@ -1037,29 +1217,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.78000000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F14">
-        <v>1896178.59451283</v>
+        <v>1446340.1501152399</v>
       </c>
       <c r="G14">
-        <v>0.93128614308486601</v>
+        <v>0.98073014827341098</v>
       </c>
       <c r="H14">
-        <v>6340471.6649449896</v>
+        <v>10018296.026913799</v>
       </c>
       <c r="I14">
-        <v>2010979.3594782599</v>
+        <v>1521950.74633692</v>
       </c>
       <c r="J14">
-        <v>3.3438156528573102</v>
+        <v>6.92665278365922</v>
       </c>
     </row>
     <row r="15">
@@ -1067,29 +1247,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.79000000000000004</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F15">
-        <v>2128190.6820938899</v>
+        <v>1598552.1876598699</v>
       </c>
       <c r="G15">
-        <v>0.91786014727946597</v>
+        <v>0.97718277431758604</v>
       </c>
       <c r="H15">
-        <v>6546637.9652053099</v>
+        <v>10225523.960586401</v>
       </c>
       <c r="I15">
-        <v>2250266.0344078299</v>
+        <v>1677140.35277656</v>
       </c>
       <c r="J15">
-        <v>3.0761519727941802</v>
+        <v>6.3967407755111498</v>
       </c>
     </row>
     <row r="16">
@@ -1097,29 +1277,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.80000000000000004</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F16">
-        <v>2374790.1052691001</v>
+        <v>1756723.70808775</v>
       </c>
       <c r="G16">
-        <v>0.90283659062454702</v>
+        <v>0.97327368328949504</v>
       </c>
       <c r="H16">
-        <v>6761456.5617451798</v>
+        <v>10439233.550781701</v>
       </c>
       <c r="I16">
-        <v>2504228.65951883</v>
+        <v>1838298.9148816001</v>
       </c>
       <c r="J16">
-        <v>2.8471807031463898</v>
+        <v>5.9424447354587704</v>
       </c>
     </row>
     <row r="17">
@@ -1127,29 +1307,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.81000000000000005</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F17">
-        <v>2636126.7635297501</v>
+        <v>1920870.0139840001</v>
       </c>
       <c r="G17">
-        <v>0.88611749138566398</v>
+        <v>0.96898896270351897</v>
       </c>
       <c r="H17">
-        <v>6985521.18817815</v>
+        <v>10659770.336317601</v>
       </c>
       <c r="I17">
-        <v>2772927.39142481</v>
+        <v>2005430.4013596701</v>
       </c>
       <c r="J17">
-        <v>2.6499185414075499</v>
+        <v>5.5494490822981799</v>
       </c>
     </row>
     <row r="18">
@@ -1157,29 +1337,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="F18">
-        <v>2912163.0108796302</v>
+        <v>2090983.3339792399</v>
       </c>
       <c r="G18">
-        <v>0.86760446620195097</v>
+        <v>0.96431469082374599</v>
       </c>
       <c r="H18">
-        <v>7219554.1768866703</v>
+        <v>10887516.1240796</v>
       </c>
       <c r="I18">
-        <v>3056209.0754048699</v>
+        <v>2178514.48537802</v>
       </c>
       <c r="J18">
-        <v>2.4791037280244699</v>
+        <v>5.2068880450425103</v>
       </c>
     </row>
     <row r="19">
@@ -1187,29 +1367,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.82999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="F19">
-        <v>3202620.5015905602</v>
+        <v>2267030.37901494</v>
       </c>
       <c r="G19">
-        <v>0.84720015422658801</v>
+        <v>0.95923699329219603</v>
       </c>
       <c r="H19">
-        <v>7464456.8299150104</v>
+        <v>11122894.5467472</v>
       </c>
       <c r="I19">
-        <v>3353649.0663352902</v>
+        <v>2357504.1129135801</v>
       </c>
       <c r="J19">
-        <v>2.3307341054638999</v>
+        <v>4.9063720758697196</v>
       </c>
     </row>
     <row r="20">
@@ -1217,29 +1397,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.83999999999999997</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F20">
-        <v>3506916.8482378698</v>
+        <v>2448949.9376853402</v>
       </c>
       <c r="G20">
-        <v>0.824810029690908</v>
+        <v>0.95374210542474802</v>
       </c>
       <c r="H20">
-        <v>7721382.3151387405</v>
+        <v>11366377.6143537</v>
       </c>
       <c r="I20">
-        <v>3664482.5805464499</v>
+        <v>2542323.1611125399</v>
       </c>
       <c r="J20">
-        <v>2.20175802543437</v>
+        <v>4.6413270599956897</v>
       </c>
     </row>
     <row r="21">
@@ -1247,29 +1427,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.84999999999999998</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F21">
-        <v>3824091.6918231398</v>
+        <v>2636650.6192121301</v>
       </c>
       <c r="G21">
-        <v>0.80034467278732302</v>
+        <v>0.94781643996499099</v>
       </c>
       <c r="H21">
-        <v>7991842.2974448903</v>
+        <v>11618493.455874899</v>
       </c>
       <c r="I21">
-        <v>3987525.8568551298</v>
+        <v>2732864.3179377802</v>
       </c>
       <c r="J21">
-        <v>2.0898668079882698</v>
+        <v>4.4065350832666104</v>
       </c>
     </row>
     <row r="22">
@@ -1277,29 +1457,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.85999999999999999</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F22">
-        <v>4152723.3656282602</v>
+        <v>2830008.9007997098</v>
       </c>
       <c r="G22">
-        <v>0.77372256690854901</v>
+        <v>0.94144665978019404</v>
       </c>
       <c r="H22">
-        <v>8277864.9003441604</v>
+        <v>11879835.4893436</v>
       </c>
       <c r="I22">
-        <v>4321089.8833134798</v>
+        <v>2928987.3716977499</v>
       </c>
       <c r="J22">
-        <v>1.9933581342931099</v>
+        <v>4.1978085249083898</v>
       </c>
     </row>
     <row r="23">
@@ -1307,29 +1487,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.87</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F23">
-        <v>4490840.9724848503</v>
+        <v>3028867.7037214399</v>
       </c>
       <c r="G23">
-        <v>0.74487347187697395</v>
+        <v>0.93461975454406299</v>
       </c>
       <c r="H23">
-        <v>8582232.2093465198</v>
+        <v>12151073.311090499</v>
       </c>
       <c r="I23">
-        <v>4662895.0496837404</v>
+        <v>3130518.1797859599</v>
       </c>
       <c r="J23">
-        <v>1.91105235342988</v>
+        <v>4.0117543913063596</v>
       </c>
     </row>
     <row r="24">
@@ -1337,29 +1517,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.88</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F24">
-        <v>4835844.8649427304</v>
+        <v>3233035.8177177599</v>
       </c>
       <c r="G24">
-        <v>0.71374236698372695</v>
+        <v>0.92732311982317195</v>
       </c>
       <c r="H24">
-        <v>8908843.6393184196</v>
+        <v>12432965.6589438</v>
       </c>
       <c r="I24">
-        <v>5010007.7067335797</v>
+        <v>3337248.6996076</v>
       </c>
       <c r="J24">
-        <v>1.8422517446543301</v>
+        <v>3.8456009645201998</v>
       </c>
     </row>
     <row r="25">
@@ -1367,29 +1547,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.89000000000000001</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F25">
-        <v>5184467.0277421102</v>
+        <v>3442288.6281715501</v>
       </c>
       <c r="G25">
-        <v>0.68029381757987895</v>
+        <v>0.919544636091297</v>
       </c>
       <c r="H25">
-        <v>9263283.2695534006</v>
+        <v>12726375.8834385</v>
       </c>
       <c r="I25">
-        <v>5358848.6568775503</v>
+        <v>3548938.6266499101</v>
       </c>
       <c r="J25">
-        <v>1.7867378112321901</v>
+        <v>3.6970682177218799</v>
       </c>
     </row>
     <row r="26">
@@ -1397,29 +1577,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.90000000000000002</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F26">
-        <v>5532846.0751794502</v>
+        <v>3656370.7927711299</v>
       </c>
       <c r="G26">
-        <v>0.64451628498119695</v>
+        <v>0.91127274392573299</v>
       </c>
       <c r="H26">
-        <v>9653726.7308209892</v>
+        <v>13032290.458664799</v>
       </c>
       <c r="I26">
-        <v>5705393.1457835799</v>
+        <v>3765319.4159555198</v>
       </c>
       <c r="J26">
-        <v>1.7448030542776101</v>
+        <v>3.5642693800175902</v>
       </c>
     </row>
     <row r="27">
@@ -1427,29 +1607,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.91000000000000003</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F27">
-        <v>5876897.26788822</v>
+        <v>3875001.7903345199</v>
       </c>
       <c r="G27">
-        <v>0.60642510115953796</v>
+        <v>0.90249650983033403</v>
       </c>
       <c r="H27">
-        <v>10092430.462491799</v>
+        <v>13351841.1842754</v>
       </c>
       <c r="I27">
-        <v>6045857.9563623797</v>
+        <v>3986101.7969586202</v>
       </c>
       <c r="J27">
-        <v>1.71730591882856</v>
+        <v>3.4456348426932699</v>
       </c>
     </row>
     <row r="28">
@@ -1457,29 +1637,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.92000000000000004</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F28">
-        <v>6213432.9084411003</v>
+        <v>4097885.6637528501</v>
       </c>
       <c r="G28">
-        <v>0.56606085615643398</v>
+        <v>0.893205674542904</v>
       </c>
       <c r="H28">
-        <v>10598252.025758</v>
+        <v>13686331.876679599</v>
       </c>
       <c r="I28">
-        <v>6378649.5838991096</v>
+        <v>4210988.37643026</v>
       </c>
       <c r="J28">
-        <v>1.70569992175501</v>
+        <v>3.3398520602318702</v>
       </c>
     </row>
     <row r="29">
@@ -1487,29 +1667,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.93000000000000005</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F29">
-        <v>6543261.2989753904</v>
+        <v>4324726.8617389696</v>
       </c>
       <c r="G29">
-        <v>0.52347477880367399</v>
+        <v>0.88339067196757004</v>
       </c>
       <c r="H29">
-        <v>11201052.374594999</v>
+        <v>14037270.524837</v>
       </c>
       <c r="I29">
-        <v>6709767.2807893502</v>
+        <v>4439693.6355186403</v>
       </c>
       <c r="J29">
-        <v>1.71184549459288</v>
+        <v>3.24581666625591</v>
       </c>
     </row>
     <row r="30">
@@ -1517,29 +1697,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93999999999999995</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F30">
-        <v>6879881.5330549004</v>
+        <v>4555254.9425199404</v>
       </c>
       <c r="G30">
-        <v>0.47867804484293403</v>
+        <v>0.87304260149788804</v>
       </c>
       <c r="H30">
-        <v>11949599.890229199</v>
+        <v>14406408.0975031</v>
       </c>
       <c r="I30">
-        <v>7068551.2995004402</v>
+        <v>4671974.6799541004</v>
       </c>
       <c r="J30">
-        <v>1.73689035673311</v>
+        <v>3.1625909590767098</v>
       </c>
     </row>
     <row r="31">
@@ -1547,29 +1727,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.94999999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F31">
-        <v>7275690.4146600896</v>
+        <v>4789262.1799961403</v>
       </c>
       <c r="G31">
-        <v>0.43148594431239001</v>
+        <v>0.86215312866716098</v>
       </c>
       <c r="H31">
-        <v>12925809.608375</v>
+        <v>14795785.434204999</v>
       </c>
       <c r="I31">
-        <v>7558412.8563490501</v>
+        <v>4907677.6785634402</v>
       </c>
       <c r="J31">
-        <v>1.7765749876232</v>
+        <v>3.0893663529226401</v>
       </c>
     </row>
     <row r="32">
@@ -1577,29 +1757,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.95999999999999996</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F32">
-        <v>7910849.5838213898</v>
+        <v>5026660.0341030303</v>
       </c>
       <c r="G32">
-        <v>0.38102335809710902</v>
+        <v>0.85071427755951501</v>
       </c>
       <c r="H32">
-        <v>14267658.7963815</v>
+        <v>15207789.924023399</v>
       </c>
       <c r="I32">
-        <v>8514384.9046711009</v>
+        <v>5146807.30983858</v>
       </c>
       <c r="J32">
-        <v>1.80355581852555</v>
+        <v>3.0254263906544701</v>
       </c>
     </row>
     <row r="33">
@@ -1607,29 +1787,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.96999999999999997</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F33">
-        <v>9288075.8899938203</v>
+        <v>5267563.3696351601</v>
       </c>
       <c r="G33">
-        <v>0.32417837086395701</v>
+        <v>0.83871806135441695</v>
       </c>
       <c r="H33">
-        <v>16185416.760284901</v>
+        <v>15645223.9507271</v>
       </c>
       <c r="I33">
-        <v>10431978.047352901</v>
+        <v>5389630.18701078</v>
       </c>
       <c r="J33">
-        <v>1.7426016918877401</v>
+        <v>2.97010645204838</v>
       </c>
     </row>
     <row r="34">
@@ -1637,29 +1817,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.97999999999999998</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F34">
-        <v>11758221.744176</v>
+        <v>5512415.8070587004</v>
       </c>
       <c r="G34">
-        <v>0.25453086660408097</v>
+        <v>0.82615587180725503</v>
       </c>
       <c r="H34">
-        <v>19062136.116751</v>
+        <v>16111387.3036233</v>
       </c>
       <c r="I34">
-        <v>13333453.882095199</v>
+        <v>5636828.89004701</v>
       </c>
       <c r="J34">
-        <v>1.62117508340006</v>
+        <v>2.92274528401731</v>
       </c>
     </row>
     <row r="35">
@@ -1667,29 +1847,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.98999999999999999</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F35">
-        <v>14966585.983666399</v>
+        <v>5762176.6031717099</v>
       </c>
       <c r="G35">
-        <v>0.16551210315991099</v>
+        <v>0.81301750971103204</v>
       </c>
       <c r="H35">
-        <v>24790818.351406801</v>
+        <v>16610175.799507899</v>
       </c>
       <c r="I35">
-        <v>15152428.7492925</v>
+        <v>5889732.1157618603</v>
       </c>
       <c r="J35">
-        <v>1.65641104647792</v>
+        <v>2.8826217839913202</v>
       </c>
     </row>
     <row r="36">
@@ -1697,29 +1877,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.99099999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F36">
-        <v>15347505.8788321</v>
+        <v>6018600.5391658703</v>
       </c>
       <c r="G36">
-        <v>0.15539581609456801</v>
+        <v>0.79928967892247105</v>
       </c>
       <c r="H36">
-        <v>25861750.5294195</v>
+        <v>17146197.983695202</v>
       </c>
       <c r="I36">
-        <v>15571022.471873499</v>
+        <v>6150660.5908238702</v>
       </c>
       <c r="J36">
-        <v>1.6850783921242201</v>
+        <v>2.8488679174031901</v>
       </c>
     </row>
     <row r="37">
@@ -1727,29 +1907,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99199999999999999</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F37">
-        <v>15815547.987250401</v>
+        <v>6284660.03389249</v>
       </c>
       <c r="G37">
-        <v>0.14500006133916399</v>
+        <v>0.78495367413156703</v>
       </c>
       <c r="H37">
-        <v>27148091.536612701</v>
+        <v>17724910.4780568</v>
       </c>
       <c r="I37">
-        <v>16123876.702638401</v>
+        <v>6423451.1916805096</v>
       </c>
       <c r="J37">
-        <v>1.71654447626462</v>
+        <v>2.8203451551027898</v>
       </c>
     </row>
     <row r="38">
@@ -1757,29 +1937,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99299999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F38">
-        <v>16479099.530141801</v>
+        <v>6565187.5008833101</v>
       </c>
       <c r="G38">
-        <v>0.13423520192098601</v>
+        <v>0.76998184700856698</v>
       </c>
       <c r="H38">
-        <v>28722979.3700376</v>
+        <v>18352769.327300001</v>
       </c>
       <c r="I38">
-        <v>16977363.0361907</v>
+        <v>6714259.0078711696</v>
       </c>
       <c r="J38">
-        <v>1.74299447111783</v>
+        <v>2.7954676579809301</v>
       </c>
     </row>
     <row r="39">
@@ -1787,29 +1967,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99399999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F39">
-        <v>17581696.447580401</v>
+        <v>6867863.3759034304</v>
       </c>
       <c r="G39">
-        <v>0.122900525419394</v>
+        <v>0.75433220289589797</v>
       </c>
       <c r="H39">
-        <v>30680582.092345402</v>
+        <v>19037387.581383999</v>
       </c>
       <c r="I39">
-        <v>18491564.127990998</v>
+        <v>7032798.9204069702</v>
       </c>
       <c r="J39">
-        <v>1.74502967809843</v>
+        <v>2.7719519942954198</v>
       </c>
     </row>
     <row r="40">
@@ -1817,29 +1997,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.995</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F40">
-        <v>19575493.5044888</v>
+        <v>7204754.3249094104</v>
       </c>
       <c r="G40">
-        <v>0.11055491574182399</v>
+        <v>0.73794010362011797</v>
       </c>
       <c r="H40">
-        <v>33118385.6852163</v>
+        <v>19787674.3726951</v>
       </c>
       <c r="I40">
-        <v>20948105.190931398</v>
+        <v>7394292.1017808598</v>
       </c>
       <c r="J40">
-        <v>1.6918289021741399</v>
+        <v>2.7464745472697101</v>
       </c>
     </row>
     <row r="41">
@@ -1847,29 +2027,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.996</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F41">
-        <v>22414756.2863883</v>
+        <v>7594739.6412415002</v>
       </c>
       <c r="G41">
-        <v>0.096569234034106194</v>
+        <v>0.72070543338736004</v>
       </c>
       <c r="H41">
-        <v>36160955.808787502</v>
+        <v>20613899.857422698</v>
       </c>
       <c r="I41">
-        <v>23889283.8193652</v>
+        <v>7822559.0146329002</v>
       </c>
       <c r="J41">
-        <v>1.6132656249645201</v>
+        <v>2.7142339080965501</v>
       </c>
     </row>
     <row r="42">
@@ -1877,29 +2057,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.997</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F42">
-        <v>25248007.755001798</v>
+        <v>8067389.8129380904</v>
       </c>
       <c r="G42">
-        <v>0.080619919445615501</v>
+        <v>0.70247255549482701</v>
       </c>
       <c r="H42">
-        <v>40251513.138595</v>
+        <v>21527567.060479101</v>
       </c>
       <c r="I42">
-        <v>26137839.270319302</v>
+        <v>8352009.5428584795</v>
       </c>
       <c r="J42">
-        <v>1.59424511942416</v>
+        <v>2.6684674423385699</v>
       </c>
     </row>
     <row r="43">
@@ -1907,29 +2087,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.998</v>
+        <v>0.87</v>
       </c>
       <c r="F43">
-        <v>26815311.963016</v>
+        <v>8657562.0149152707</v>
       </c>
       <c r="G43">
-        <v>0.063169391236486003</v>
+        <v>0.68300563043010798</v>
       </c>
       <c r="H43">
-        <v>47308350.072732799</v>
+        <v>22541071.484911501</v>
       </c>
       <c r="I43">
-        <v>30424341.457433999</v>
+        <v>9005129.1228048392</v>
       </c>
       <c r="J43">
-        <v>1.7642289650771501</v>
+        <v>2.6036280705905002</v>
       </c>
     </row>
     <row r="44">
@@ -1937,29 +2117,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F44">
-        <v>38292850.204489999</v>
+        <v>9373624.3151875604</v>
       </c>
       <c r="G44">
-        <v>0.042857045470016203</v>
+        <v>0.66201640946092699</v>
       </c>
       <c r="H44">
-        <v>64192358.688031599</v>
+        <v>23669066.681753699</v>
       </c>
       <c r="I44">
-        <v>38959616.403075002</v>
+        <v>9783262.8781945799</v>
       </c>
       <c r="J44">
-        <v>1.6763536363899301</v>
+        <v>2.52507097424462</v>
       </c>
     </row>
     <row r="45">
@@ -1967,29 +2147,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.99909999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F45">
-        <v>39494783.796659403</v>
+        <v>10212901.144181101</v>
       </c>
       <c r="G45">
-        <v>0.040255966329436101</v>
+        <v>0.63921350863077697</v>
       </c>
       <c r="H45">
-        <v>66995996.719693199</v>
+        <v>24931412.4820772</v>
       </c>
       <c r="I45">
-        <v>39761306.7014466</v>
+        <v>10680669.3437886</v>
       </c>
       <c r="J45">
-        <v>1.69632519232476</v>
+        <v>2.4411684917054401</v>
       </c>
     </row>
     <row r="46">
@@ -1997,29 +2177,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99919999999999998</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F46">
-        <v>39912329.379953504</v>
+        <v>11166308.527707901</v>
       </c>
       <c r="G46">
-        <v>0.0376013635635018</v>
+        <v>0.61431892623241702</v>
       </c>
       <c r="H46">
-        <v>70400332.971973494</v>
+        <v>26356486.7959061</v>
       </c>
       <c r="I46">
-        <v>39987586.828415804</v>
+        <v>11684547.6873719</v>
       </c>
       <c r="J46">
-        <v>1.7638743231892899</v>
+        <v>2.3603581013819901</v>
       </c>
     </row>
     <row r="47">
@@ -2027,29 +2207,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99929999999999997</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F47">
-        <v>40170067.131299898</v>
+        <v>12217307.9765928</v>
       </c>
       <c r="G47">
-        <v>0.034931653551333403</v>
+        <v>0.58708449683216501</v>
       </c>
       <c r="H47">
-        <v>74745010.992481098</v>
+        <v>27986702.252409901</v>
       </c>
       <c r="I47">
-        <v>41215533.567349002</v>
+        <v>12775326.1626544</v>
       </c>
       <c r="J47">
-        <v>1.8607141170107999</v>
+        <v>2.2907421427068702</v>
       </c>
     </row>
     <row r="48">
@@ -2057,29 +2237,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99939999999999996</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F48">
-        <v>43156713.447658703</v>
+        <v>13344256.0440729</v>
       </c>
       <c r="G48">
-        <v>0.032179961555170597</v>
+        <v>0.55730767296605799</v>
       </c>
       <c r="H48">
-        <v>80333257.230002105</v>
+        <v>29888124.263629399</v>
       </c>
       <c r="I48">
-        <v>46489064.4392161</v>
+        <v>13933722.516067799</v>
       </c>
       <c r="J48">
-        <v>1.8614313003104801</v>
+        <v>2.2397744891072202</v>
       </c>
     </row>
     <row r="49">
@@ -2087,29 +2267,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99950000000000006</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F49">
-        <v>49775262.135984197</v>
+        <v>14534459.9025048</v>
       </c>
       <c r="G49">
-        <v>0.029076190344312702</v>
+        <v>0.52483085038809296</v>
       </c>
       <c r="H49">
-        <v>87102095.788157806</v>
+        <v>32167324.513280999</v>
       </c>
       <c r="I49">
-        <v>51790328.080450602</v>
+        <v>15170427.5832753</v>
       </c>
       <c r="J49">
-        <v>1.7499073244496</v>
+        <v>2.2131764598791399</v>
       </c>
     </row>
     <row r="50">
@@ -2117,29 +2297,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99960000000000004</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F50">
-        <v>53320466.909959197</v>
+        <v>15837198.7049683</v>
       </c>
       <c r="G50">
-        <v>0.0256184883828726</v>
+        <v>0.48947150657413702</v>
       </c>
       <c r="H50">
-        <v>95930037.715082005</v>
+        <v>35000140.668282002</v>
       </c>
       <c r="I50">
-        <v>57406388.250197597</v>
+        <v>16633294.8170439</v>
       </c>
       <c r="J50">
-        <v>1.7991222371903901</v>
+        <v>2.2099956766534801</v>
       </c>
     </row>
     <row r="51">
@@ -2147,29 +2327,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99970000000000003</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F51">
-        <v>63119076.289959997</v>
+        <v>17553973.057909898</v>
       </c>
       <c r="G51">
-        <v>0.0217858387625849</v>
+        <v>0.45070250108854698</v>
       </c>
       <c r="H51">
-        <v>108771254.203391</v>
+        <v>38673509.838529602</v>
       </c>
       <c r="I51">
-        <v>70455988.5873034</v>
+        <v>18932558.863941699</v>
       </c>
       <c r="J51">
-        <v>1.7232706908401401</v>
+        <v>2.2031200407421898</v>
       </c>
     </row>
     <row r="52">
@@ -2177,29 +2357,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99980000000000002</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F52">
-        <v>79056500.775083303</v>
+        <v>20605512.249895498</v>
       </c>
       <c r="G52">
-        <v>0.017081952555201001</v>
+        <v>0.40657435410829301</v>
       </c>
       <c r="H52">
-        <v>127928887.011435</v>
+        <v>43608747.582176499</v>
       </c>
       <c r="I52">
-        <v>92095473.788654506</v>
+        <v>22847312.485451002</v>
       </c>
       <c r="J52">
-        <v>1.6181956671140001</v>
+        <v>2.1163631873503999</v>
       </c>
     </row>
     <row r="53">
@@ -2207,29 +2387,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99990000000000001</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F53">
-        <v>109134542.895799</v>
+        <v>25341715.255975999</v>
       </c>
       <c r="G53">
-        <v>0.010933339249177601</v>
+        <v>0.353321670690946</v>
       </c>
       <c r="H53">
-        <v>163762300.23421499</v>
+        <v>50529225.947751701</v>
       </c>
       <c r="I53">
-        <v>111521043.954399</v>
+        <v>28270503.525580101</v>
       </c>
       <c r="J53">
-        <v>1.50055423231648</v>
+        <v>1.9939149910476599</v>
       </c>
     </row>
     <row r="54">
@@ -2237,29 +2417,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990999999999997</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F54">
-        <v>114006825.697721</v>
+        <v>31557664.600059699</v>
       </c>
       <c r="G54">
-        <v>0.010188786073491499</v>
+        <v>0.28742857384398102</v>
       </c>
       <c r="H54">
-        <v>169566884.26527801</v>
+        <v>61658587.158837497</v>
       </c>
       <c r="I54">
-        <v>116716296.274388</v>
+        <v>38119116.796881899</v>
       </c>
       <c r="J54">
-        <v>1.48733975555876</v>
+        <v>1.95383872476802</v>
       </c>
     </row>
     <row r="55">
@@ -2267,29 +2447,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99992000000000003</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F55">
-        <v>119552076.863869</v>
+        <v>45614278.879437402</v>
       </c>
       <c r="G55">
-        <v>0.0094095475911029104</v>
+        <v>0.198580256991577</v>
       </c>
       <c r="H55">
-        <v>176173207.76410201</v>
+        <v>85198057.520793095</v>
       </c>
       <c r="I55">
-        <v>122676696.66931701</v>
+        <v>47634012.622454397</v>
       </c>
       <c r="J55">
-        <v>1.4736106003805001</v>
+        <v>1.86779358599484</v>
       </c>
     </row>
     <row r="56">
@@ -2297,29 +2477,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992999999999999</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F56">
-        <v>125966960.823974</v>
+        <v>49918090.664885297</v>
       </c>
       <c r="G56">
-        <v>0.0085905154080273202</v>
+        <v>0.18747768641266599</v>
       </c>
       <c r="H56">
-        <v>183815566.49197599</v>
+        <v>89371840.287275195</v>
       </c>
       <c r="I56">
-        <v>129643300.721975</v>
+        <v>52160137.855727397</v>
       </c>
       <c r="J56">
-        <v>1.4592363369696599</v>
+        <v>1.7903697656878399</v>
       </c>
     </row>
     <row r="57">
@@ -2327,29 +2507,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99994000000000005</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F57">
-        <v>133545528.539837</v>
+        <v>53819282.057350002</v>
       </c>
       <c r="G57">
-        <v>0.0077249717596156496</v>
+        <v>0.175320163246626</v>
       </c>
       <c r="H57">
-        <v>192844277.453594</v>
+        <v>94023303.091218606</v>
       </c>
       <c r="I57">
-        <v>137987801.20518801</v>
+        <v>54635726.138346098</v>
       </c>
       <c r="J57">
-        <v>1.4440339527809001</v>
+        <v>1.74701890283536</v>
       </c>
     </row>
     <row r="58">
@@ -2357,29 +2537,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99995000000000001</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F58">
-        <v>142754673.049438</v>
+        <v>55452170.219340697</v>
       </c>
       <c r="G58">
-        <v>0.0068037173312906997</v>
+        <v>0.16258562814900801</v>
       </c>
       <c r="H58">
-        <v>203815572.703347</v>
+        <v>99650099.798771903</v>
       </c>
       <c r="I58">
-        <v>148325747.29419801</v>
+        <v>56268614.300335899</v>
       </c>
       <c r="J58">
-        <v>1.4277331056809801</v>
+        <v>1.7970459840364501</v>
       </c>
     </row>
     <row r="59">
@@ -2387,29 +2567,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995999999999996</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F59">
-        <v>154399009.68813601</v>
+        <v>57085058.381331302</v>
       </c>
       <c r="G59">
-        <v>0.0058134431886897103</v>
+        <v>0.14947049828164799</v>
       </c>
       <c r="H59">
-        <v>217688029.05555901</v>
+        <v>106880347.381844</v>
       </c>
       <c r="I59">
-        <v>161785101.87910199</v>
+        <v>59411549.362258799</v>
       </c>
       <c r="J59">
-        <v>1.4099056042863101</v>
+        <v>1.8722998699217901</v>
       </c>
     </row>
     <row r="60">
@@ -2417,29 +2597,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99997000000000003</v>
+        <v>0.995</v>
       </c>
       <c r="F60">
-        <v>170040375.730295</v>
+        <v>65214521.117405303</v>
       </c>
       <c r="G60">
-        <v>0.0047333097258785099</v>
+        <v>0.135622810806207</v>
       </c>
       <c r="H60">
-        <v>236322338.11423999</v>
+        <v>116374106.985762</v>
       </c>
       <c r="I60">
-        <v>180783472.984009</v>
+        <v>71581821.700367406</v>
       </c>
       <c r="J60">
-        <v>1.3898013168888601</v>
+        <v>1.7844815079797001</v>
       </c>
     </row>
     <row r="61">
@@ -2447,29 +2627,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997999999999998</v>
+        <v>0.996</v>
       </c>
       <c r="F61">
-        <v>193349630.619679</v>
+        <v>76179910.917648897</v>
       </c>
       <c r="G61">
-        <v>0.0035263365470912999</v>
+        <v>0.118938467333101</v>
       </c>
       <c r="H61">
-        <v>264091770.679506</v>
+        <v>127572178.30711</v>
       </c>
       <c r="I61">
-        <v>212223373.56922799</v>
+        <v>81062660.735318601</v>
       </c>
       <c r="J61">
-        <v>1.3658767789372099</v>
+        <v>1.6746170580983799</v>
       </c>
     </row>
     <row r="62">
@@ -2477,29 +2657,629 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="D62"/>
       <c r="E62">
+        <v>0.997</v>
+      </c>
+      <c r="F62">
+        <v>86608074.544967204</v>
+      </c>
+      <c r="G62">
+        <v>0.10004432294804599</v>
+      </c>
+      <c r="H62">
+        <v>143075350.83104101</v>
+      </c>
+      <c r="I62">
+        <v>94106369.878468797</v>
+      </c>
+      <c r="J62">
+        <v>1.6519862793711599</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63">
+        <v>0.998</v>
+      </c>
+      <c r="F63">
+        <v>103077495.40860701</v>
+      </c>
+      <c r="G63">
+        <v>0.078109941274555506</v>
+      </c>
+      <c r="H63">
+        <v>167559841.307327</v>
+      </c>
+      <c r="I63">
+        <v>117386956.392151</v>
+      </c>
+      <c r="J63">
+        <v>1.6255715240568001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.999</v>
+      </c>
+      <c r="F64">
+        <v>136826139.61303899</v>
+      </c>
+      <c r="G64">
+        <v>0.050749303431230103</v>
+      </c>
+      <c r="H64">
+        <v>217732726.22250301</v>
+      </c>
+      <c r="I64">
+        <v>139675120.52037299</v>
+      </c>
+      <c r="J64">
+        <v>1.59130942989605</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F65">
+        <v>142660052.95032501</v>
+      </c>
+      <c r="G65">
+        <v>0.047493745483621598</v>
+      </c>
+      <c r="H65">
+        <v>226405793.52273801</v>
+      </c>
+      <c r="I65">
+        <v>145954168.164758</v>
+      </c>
+      <c r="J65">
+        <v>1.5870300679165901</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F66">
+        <v>149424496.74417999</v>
+      </c>
+      <c r="G66">
+        <v>0.044091835033248601</v>
+      </c>
+      <c r="H66">
+        <v>236462246.69248399</v>
+      </c>
+      <c r="I66">
+        <v>153302038.91157201</v>
+      </c>
+      <c r="J66">
+        <v>1.5824864854476699</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F67">
+        <v>157415563.94286799</v>
+      </c>
+      <c r="G67">
+        <v>0.0405186598728925</v>
+      </c>
+      <c r="H67">
+        <v>248342276.37547001</v>
+      </c>
+      <c r="I67">
+        <v>162085767.876066</v>
+      </c>
+      <c r="J67">
+        <v>1.5776221242367301</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F68">
+        <v>167085595.27746901</v>
+      </c>
+      <c r="G68">
+        <v>0.036740752913963601</v>
+      </c>
+      <c r="H68">
+        <v>262718361.125368</v>
+      </c>
+      <c r="I68">
+        <v>172884657.620271</v>
+      </c>
+      <c r="J68">
+        <v>1.5723579324063699</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F69">
+        <v>179170870.82933301</v>
+      </c>
+      <c r="G69">
+        <v>0.032711144641292503</v>
+      </c>
+      <c r="H69">
+        <v>280685101.82638401</v>
+      </c>
+      <c r="I69">
+        <v>186684702.24795699</v>
+      </c>
+      <c r="J69">
+        <v>1.56657776192731</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F70">
+        <v>194978144.24907601</v>
+      </c>
+      <c r="G70">
+        <v>0.028359883916863001</v>
+      </c>
+      <c r="H70">
+        <v>304185201.72098398</v>
+      </c>
+      <c r="I70">
+        <v>205353844.077979</v>
+      </c>
+      <c r="J70">
+        <v>1.5600989684895199</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F71">
+        <v>217137685.410119</v>
+      </c>
+      <c r="G71">
+        <v>0.023573481466161401</v>
+      </c>
+      <c r="H71">
+        <v>337128987.60202199</v>
+      </c>
+      <c r="I71">
+        <v>233071342.57339799</v>
+      </c>
+      <c r="J71">
+        <v>1.5526046847430901</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F72">
+        <v>252134720.60910499</v>
+      </c>
+      <c r="G72">
+        <v>0.018141037528775099</v>
+      </c>
+      <c r="H72">
+        <v>389157810.11633402</v>
+      </c>
+      <c r="I72">
+        <v>282541904.557217</v>
+      </c>
+      <c r="J72">
+        <v>1.5434518862622699</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F73">
+        <v>323849597.46601802</v>
+      </c>
+      <c r="G73">
+        <v>0.0115555301063596</v>
+      </c>
+      <c r="H73">
+        <v>495773715.675448</v>
+      </c>
+      <c r="I73">
+        <v>329903598.14522099</v>
+      </c>
+      <c r="J73">
+        <v>1.53087643015357</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F74">
+        <v>336246491.81356901</v>
+      </c>
+      <c r="G74">
+        <v>0.010786588381534099</v>
+      </c>
+      <c r="H74">
+        <v>514203728.73427099</v>
+      </c>
+      <c r="I74">
+        <v>343246389.81017798</v>
+      </c>
+      <c r="J74">
+        <v>1.5292463750651399</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F75">
+        <v>350620736.02737099</v>
+      </c>
+      <c r="G75">
+        <v>0.0099865471800901495</v>
+      </c>
+      <c r="H75">
+        <v>535573396.09966499</v>
+      </c>
+      <c r="I75">
+        <v>358860399.14860499</v>
+      </c>
+      <c r="J75">
+        <v>1.5275006326432901</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F76">
+        <v>367601518.91871202</v>
+      </c>
+      <c r="G76">
+        <v>0.0091501127312166499</v>
+      </c>
+      <c r="H76">
+        <v>560818109.94997597</v>
+      </c>
+      <c r="I76">
+        <v>377525564.99109602</v>
+      </c>
+      <c r="J76">
+        <v>1.52561423467347</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F77">
+        <v>388150051.24371499</v>
+      </c>
+      <c r="G77">
+        <v>0.0082701733769868797</v>
+      </c>
+      <c r="H77">
+        <v>591366867.44295597</v>
+      </c>
+      <c r="I77">
+        <v>400472888.252572</v>
+      </c>
+      <c r="J77">
+        <v>1.52355220757563</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F78">
+        <v>413830906.531977</v>
+      </c>
+      <c r="G78">
+        <v>0.0073367482334796901</v>
+      </c>
+      <c r="H78">
+        <v>629545663.28128302</v>
+      </c>
+      <c r="I78">
+        <v>429797577.41940999</v>
+      </c>
+      <c r="J78">
+        <v>1.5212630408807699</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F79">
+        <v>447420897.87705201</v>
+      </c>
+      <c r="G79">
+        <v>0.00633497288951627</v>
+      </c>
+      <c r="H79">
+        <v>679482684.74648297</v>
+      </c>
+      <c r="I79">
+        <v>469468955.00849599</v>
+      </c>
+      <c r="J79">
+        <v>1.51866550706623</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F80">
+        <v>494509271.44047099</v>
+      </c>
+      <c r="G80">
+        <v>0.0052407312078678603</v>
+      </c>
+      <c r="H80">
+        <v>749487261.32529294</v>
+      </c>
+      <c r="I80">
+        <v>528367824.52563697</v>
+      </c>
+      <c r="J80">
+        <v>1.51561821913286</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F81">
+        <v>568876942.46330702</v>
+      </c>
+      <c r="G81">
+        <v>0.0040092076093930402</v>
+      </c>
+      <c r="H81">
+        <v>860046979.72572696</v>
+      </c>
+      <c r="I81">
+        <v>633491314.50082695</v>
+      </c>
+      <c r="J81">
+        <v>1.5118330794031101</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F62">
-        <v>236887203.31197301</v>
-      </c>
-      <c r="G62">
-        <v>0.0021094596856229401</v>
-      </c>
-      <c r="H62">
-        <v>315960167.78921503</v>
-      </c>
-      <c r="I62">
-        <v>315960167.789213</v>
-      </c>
-      <c r="J62">
-        <v>1.33380006759211</v>
+      <c r="F82">
+        <v>721268947.64728403</v>
+      </c>
+      <c r="G82">
+        <v>0.0025326614099185798</v>
+      </c>
+      <c r="H82">
+        <v>1086602644.9481101</v>
+      </c>
+      <c r="I82">
+        <v>1086602644.9481101</v>
+      </c>
+      <c r="J82">
+        <v>1.5065152166782001</v>
       </c>
     </row>
   </sheetData>
